--- a/docs/StructureDefinition-CareConnect-Procedure-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Procedure-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>A code to identify a specific procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
     <t>.code</t>
@@ -4735,7 +4738,7 @@
         <v>235</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4768,18 +4771,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4885,7 +4888,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4993,7 +4996,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5016,19 +5019,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -5065,7 +5068,7 @@
         <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
@@ -5075,7 +5078,7 @@
         <v>97</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5090,21 +5093,21 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>39</v>
@@ -5126,19 +5129,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -5166,10 +5169,10 @@
         <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -5187,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5202,18 +5205,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5319,7 +5322,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5425,10 +5428,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -5450,13 +5453,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5533,7 +5536,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5559,23 +5562,23 @@
         <v>61</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>39</v>
@@ -5617,7 +5620,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5632,18 +5635,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5669,13 +5672,13 @@
         <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5725,7 +5728,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5740,18 +5743,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5777,14 +5780,14 @@
         <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5833,7 +5836,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5848,18 +5851,18 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5885,14 +5888,14 @@
         <v>120</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5941,7 +5944,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5956,18 +5959,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5993,16 +5996,16 @@
         <v>208</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -6051,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6066,18 +6069,18 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6103,16 +6106,16 @@
         <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -6161,7 +6164,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6176,22 +6179,22 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6210,13 +6213,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6267,7 +6270,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -6282,22 +6285,22 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6316,13 +6319,13 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6373,7 +6376,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6388,18 +6391,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6422,13 +6425,13 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6479,7 +6482,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6494,18 +6497,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6528,13 +6531,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6585,7 +6588,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6597,10 +6600,10 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6717,7 +6720,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6825,11 +6828,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6854,7 +6857,7 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>109</v>
@@ -6907,7 +6910,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6933,7 +6936,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6959,10 +6962,10 @@
         <v>141</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6992,10 +6995,10 @@
         <v>217</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -7013,7 +7016,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7028,18 +7031,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7062,17 +7065,17 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -7121,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -7136,18 +7139,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7173,14 +7176,14 @@
         <v>174</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -7229,7 +7232,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7244,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -7255,7 +7258,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7278,17 +7281,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7337,7 +7340,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7352,10 +7355,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7363,7 +7366,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7389,10 +7392,10 @@
         <v>141</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7422,10 +7425,10 @@
         <v>217</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -7443,7 +7446,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7458,10 +7461,10 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7469,7 +7472,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7492,16 +7495,16 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7551,7 +7554,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7566,10 +7569,10 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7577,7 +7580,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7603,10 +7606,10 @@
         <v>141</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7636,10 +7639,10 @@
         <v>217</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7657,7 +7660,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7672,18 +7675,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7789,7 +7792,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7897,7 +7900,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7920,19 +7923,19 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7969,7 +7972,7 @@
         <v>39</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -7979,7 +7982,7 @@
         <v>97</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7994,21 +7997,21 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>39</v>
@@ -8030,19 +8033,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -8070,10 +8073,10 @@
         <v>71</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -8091,7 +8094,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8106,18 +8109,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8223,7 +8226,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8329,10 +8332,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>39</v>
@@ -8354,13 +8357,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8437,7 +8440,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8463,23 +8466,23 @@
         <v>61</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>39</v>
@@ -8521,7 +8524,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8536,18 +8539,18 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8573,13 +8576,13 @@
         <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8629,7 +8632,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8644,18 +8647,18 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8681,14 +8684,14 @@
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8737,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8752,18 +8755,18 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8789,14 +8792,14 @@
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8845,7 +8848,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8860,18 +8863,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8897,16 +8900,16 @@
         <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8955,7 +8958,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8970,18 +8973,18 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9007,16 +9010,16 @@
         <v>120</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -9065,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9080,18 +9083,18 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9117,13 +9120,13 @@
         <v>141</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9152,10 +9155,10 @@
         <v>217</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9173,7 +9176,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9188,7 +9191,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9222,16 +9225,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9281,7 +9284,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9296,7 +9299,7 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -9307,7 +9310,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9333,13 +9336,13 @@
         <v>141</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9368,10 +9371,10 @@
         <v>217</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9389,7 +9392,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9404,7 +9407,7 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9521,7 +9524,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9629,7 +9632,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9652,19 +9655,19 @@
         <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9701,7 +9704,7 @@
         <v>39</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AB74" s="2"/>
       <c r="AC74" t="s" s="2">
@@ -9711,7 +9714,7 @@
         <v>97</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9726,21 +9729,21 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>39</v>
@@ -9762,19 +9765,19 @@
         <v>49</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -9802,10 +9805,10 @@
         <v>135</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>39</v>
@@ -9823,7 +9826,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9838,18 +9841,18 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9955,7 +9958,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10061,10 +10064,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -10086,13 +10089,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10169,7 +10172,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10195,23 +10198,23 @@
         <v>61</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10253,7 +10256,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10268,18 +10271,18 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10305,13 +10308,13 @@
         <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10361,7 +10364,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10376,18 +10379,18 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10413,14 +10416,14 @@
         <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
@@ -10469,7 +10472,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10484,18 +10487,18 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10521,14 +10524,14 @@
         <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10577,7 +10580,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10592,18 +10595,18 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10629,16 +10632,16 @@
         <v>208</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
@@ -10687,7 +10690,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10702,18 +10705,18 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10739,16 +10742,16 @@
         <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10797,7 +10800,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10812,18 +10815,18 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10846,17 +10849,17 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10905,7 +10908,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10920,7 +10923,7 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>39</v>
@@ -10931,7 +10934,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10957,10 +10960,10 @@
         <v>141</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10990,10 +10993,10 @@
         <v>217</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -11011,7 +11014,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11026,7 +11029,7 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>39</v>
@@ -11037,7 +11040,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11060,13 +11063,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11117,7 +11120,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11132,18 +11135,18 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11249,7 +11252,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11357,7 +11360,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11380,13 +11383,13 @@
         <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11437,7 +11440,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11452,7 +11455,7 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>39</v>
@@ -11463,7 +11466,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11486,13 +11489,13 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11543,7 +11546,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11558,7 +11561,7 @@
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>39</v>
@@ -11569,7 +11572,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11595,10 +11598,10 @@
         <v>120</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11649,7 +11652,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
@@ -11664,7 +11667,7 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>39</v>
@@ -11675,7 +11678,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11698,13 +11701,13 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11755,7 +11758,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11767,10 +11770,10 @@
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
@@ -11781,7 +11784,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11887,7 +11890,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11995,11 +11998,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12024,7 +12027,7 @@
         <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>109</v>
@@ -12077,7 +12080,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12103,7 +12106,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12129,10 +12132,10 @@
         <v>141</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12162,10 +12165,10 @@
         <v>234</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12183,7 +12186,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12198,7 +12201,7 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>39</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12232,13 +12235,13 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12289,7 +12292,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>48</v>
@@ -12304,7 +12307,7 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>39</v>
@@ -12315,7 +12318,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12338,19 +12341,19 @@
         <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>39</v>
@@ -12399,7 +12402,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12414,7 +12417,7 @@
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>39</v>
@@ -12425,7 +12428,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12451,13 +12454,13 @@
         <v>141</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12486,10 +12489,10 @@
         <v>217</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>39</v>
@@ -12507,7 +12510,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12522,7 +12525,7 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>
